--- a/Andrew-annotations/POWL_Q4_2008.xlsx
+++ b/Andrew-annotations/POWL_Q4_2008.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE11D80-C789-44A5-AC12-4DA969BEECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3178AEAA-E02B-4A1B-8910-1A3881341DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3255" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55:J55"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -865,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -935,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1025,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1051,19 +1051,19 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1086,16 +1086,16 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1121,13 +1121,13 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1153,13 +1153,13 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1182,16 +1182,16 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1313,13 +1313,13 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1409,13 +1409,13 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1435,7 +1435,7 @@
         <v>57</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1499,7 +1499,7 @@
         <v>61</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1511,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1537,13 +1537,13 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1575,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -1665,13 +1665,13 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -1703,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -1729,13 +1729,13 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -1755,7 +1755,7 @@
         <v>74</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1793,13 +1793,13 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -1831,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1851,10 +1851,10 @@
         <v>82</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -1883,19 +1883,19 @@
         <v>84</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -1927,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -1953,13 +1953,13 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -1991,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -2078,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -2206,13 +2206,13 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -2273,13 +2273,13 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2331,13 +2331,13 @@
         <v>113</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -2375,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -2407,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -2433,13 +2433,13 @@
         <v>2</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -2462,13 +2462,13 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -2497,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -2523,7 +2523,7 @@
         <v>126</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -2535,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>2</v>
